--- a/Maps/Maps.xlsx
+++ b/Maps/Maps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TU MO\Documents\GitHub\Pacman-AI\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8270379F-0D71-4331-8C19-775F5B339DB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5780031B-E61E-4EB1-81E1-E335F086C4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1603,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CP305"/>
+  <dimension ref="A1:CP306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="M282" sqref="A281:M282"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="A237" sqref="A199:AM237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28776,13 +28776,13 @@
         <v>1</v>
       </c>
       <c r="S200" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T200" s="8">
         <v>2</v>
       </c>
       <c r="U200" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V200" s="4">
         <v>1</v>
@@ -28832,7 +28832,7 @@
       <c r="AK200" s="1">
         <v>0</v>
       </c>
-      <c r="AL200" s="8">
+      <c r="AL200" s="1">
         <v>0</v>
       </c>
       <c r="AM200" s="1">
@@ -28886,31 +28886,31 @@
         <v>1</v>
       </c>
       <c r="P201" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q201" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R201" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S201" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T201" s="4">
         <v>1</v>
       </c>
       <c r="U201" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V201" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W201" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X201" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y201" s="4">
         <v>1</v>
@@ -28948,7 +28948,7 @@
       <c r="AJ201" s="1">
         <v>0</v>
       </c>
-      <c r="AK201" s="8">
+      <c r="AK201" s="1">
         <v>0</v>
       </c>
       <c r="AL201" s="1">
@@ -28996,16 +28996,16 @@
         <v>1</v>
       </c>
       <c r="M202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q202" s="4">
         <v>1</v>
@@ -29014,31 +29014,31 @@
         <v>1</v>
       </c>
       <c r="S202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T202" s="4">
         <v>1</v>
       </c>
       <c r="U202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V202" s="4">
         <v>1</v>
       </c>
       <c r="W202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB202" s="4">
         <v>1</v>
@@ -29064,7 +29064,7 @@
       <c r="AI202" s="1">
         <v>0</v>
       </c>
-      <c r="AJ202" s="8">
+      <c r="AJ202" s="1">
         <v>0</v>
       </c>
       <c r="AK202" s="1">
@@ -29090,7 +29090,7 @@
       <c r="D203" s="1">
         <v>0</v>
       </c>
-      <c r="E203" s="8">
+      <c r="E203" s="1">
         <v>0</v>
       </c>
       <c r="F203" s="1">
@@ -29109,13 +29109,13 @@
         <v>1</v>
       </c>
       <c r="K203" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L203" s="4">
         <v>1</v>
       </c>
       <c r="M203" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N203" s="4">
         <v>1</v>
@@ -29127,25 +29127,25 @@
         <v>1</v>
       </c>
       <c r="Q203" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R203" s="4">
         <v>1</v>
       </c>
       <c r="S203" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T203" s="1">
         <v>3</v>
       </c>
       <c r="U203" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V203" s="4">
         <v>1</v>
       </c>
       <c r="W203" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X203" s="4">
         <v>1</v>
@@ -29157,13 +29157,13 @@
         <v>1</v>
       </c>
       <c r="AA203" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB203" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC203" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD203" s="4">
         <v>1</v>
@@ -29180,7 +29180,7 @@
       <c r="AH203" s="1">
         <v>0</v>
       </c>
-      <c r="AI203" s="8">
+      <c r="AI203" s="1">
         <v>0</v>
       </c>
       <c r="AJ203" s="1">
@@ -29212,7 +29212,7 @@
       <c r="E204" s="1">
         <v>0</v>
       </c>
-      <c r="F204" s="8">
+      <c r="F204" s="1">
         <v>0</v>
       </c>
       <c r="G204" s="1">
@@ -29225,10 +29225,10 @@
         <v>1</v>
       </c>
       <c r="J204" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K204" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L204" s="4">
         <v>1</v>
@@ -29237,13 +29237,13 @@
         <v>1</v>
       </c>
       <c r="N204" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O204" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P204" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q204" s="1">
         <v>2</v>
@@ -29252,13 +29252,13 @@
         <v>1</v>
       </c>
       <c r="S204" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T204" s="4">
         <v>1</v>
       </c>
       <c r="U204" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V204" s="4">
         <v>1</v>
@@ -29267,13 +29267,13 @@
         <v>2</v>
       </c>
       <c r="X204" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y204" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z204" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA204" s="4">
         <v>1</v>
@@ -29282,10 +29282,10 @@
         <v>1</v>
       </c>
       <c r="AC204" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD204" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE204" s="4">
         <v>1</v>
@@ -29296,7 +29296,7 @@
       <c r="AG204" s="1">
         <v>0</v>
       </c>
-      <c r="AH204" s="8">
+      <c r="AH204" s="1">
         <v>0</v>
       </c>
       <c r="AI204" s="1">
@@ -29338,25 +29338,25 @@
         <v>1</v>
       </c>
       <c r="H205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K205" s="4">
         <v>1</v>
       </c>
       <c r="L205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O205" s="4">
         <v>1</v>
@@ -29365,25 +29365,25 @@
         <v>1</v>
       </c>
       <c r="Q205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R205" s="4">
         <v>1</v>
       </c>
       <c r="S205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V205" s="4">
         <v>1</v>
       </c>
       <c r="W205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X205" s="4">
         <v>1</v>
@@ -29392,25 +29392,25 @@
         <v>1</v>
       </c>
       <c r="Z205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF205" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG205" s="4">
         <v>1</v>
@@ -29454,22 +29454,22 @@
         <v>1</v>
       </c>
       <c r="G206" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H206" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" s="4">
         <v>1</v>
       </c>
       <c r="J206" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K206" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L206" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M206" s="4">
         <v>1</v>
@@ -29478,37 +29478,37 @@
         <v>1</v>
       </c>
       <c r="O206" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P206" s="4">
         <v>1</v>
       </c>
       <c r="Q206" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R206" s="4">
         <v>1</v>
       </c>
       <c r="S206" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T206" s="4">
         <v>1</v>
       </c>
       <c r="U206" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V206" s="4">
         <v>1</v>
       </c>
       <c r="W206" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X206" s="4">
         <v>1</v>
       </c>
       <c r="Y206" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z206" s="4">
         <v>1</v>
@@ -29520,7 +29520,7 @@
         <v>2</v>
       </c>
       <c r="AC206" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD206" s="4">
         <v>1</v>
@@ -29529,10 +29529,10 @@
         <v>1</v>
       </c>
       <c r="AF206" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG206" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH206" s="4">
         <v>1</v>
@@ -29573,49 +29573,49 @@
         <v>1</v>
       </c>
       <c r="G207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H207" s="4">
         <v>1</v>
       </c>
       <c r="I207" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L207" s="4">
         <v>1</v>
       </c>
       <c r="M207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S207" s="1">
         <v>2</v>
       </c>
       <c r="T207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V207" s="4">
         <v>1</v>
@@ -29627,31 +29627,31 @@
         <v>1</v>
       </c>
       <c r="Y207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF207" s="4">
         <v>1</v>
       </c>
       <c r="AG207" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH207" s="4">
         <v>1</v>
@@ -29689,73 +29689,73 @@
         <v>1</v>
       </c>
       <c r="F208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" s="1">
         <v>2</v>
       </c>
       <c r="J208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K208" s="4">
         <v>1</v>
       </c>
       <c r="L208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N208" s="4">
         <v>1</v>
       </c>
       <c r="O208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P208" s="4">
         <v>1</v>
       </c>
       <c r="Q208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R208" s="4">
         <v>1</v>
       </c>
       <c r="S208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T208" s="4">
         <v>1</v>
       </c>
       <c r="U208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V208" s="4">
         <v>1</v>
       </c>
       <c r="W208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X208" s="4">
         <v>1</v>
       </c>
       <c r="Y208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z208" s="4">
         <v>1</v>
       </c>
       <c r="AA208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC208" s="4">
         <v>1</v>
@@ -29764,16 +29764,16 @@
         <v>1</v>
       </c>
       <c r="AE208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF208" s="4">
         <v>1</v>
       </c>
       <c r="AG208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH208" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI208" s="4">
         <v>1</v>
@@ -29805,28 +29805,28 @@
         <v>1</v>
       </c>
       <c r="E209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G209" s="4">
         <v>1</v>
       </c>
       <c r="H209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K209" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M209" s="4">
         <v>1</v>
@@ -29835,37 +29835,37 @@
         <v>1</v>
       </c>
       <c r="O209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P209" s="4">
         <v>1</v>
       </c>
       <c r="Q209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R209" s="4">
         <v>1</v>
       </c>
       <c r="S209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T209" s="4">
         <v>1</v>
       </c>
       <c r="U209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V209" s="4">
         <v>1</v>
       </c>
       <c r="W209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X209" s="4">
         <v>1</v>
       </c>
       <c r="Y209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z209" s="4">
         <v>1</v>
@@ -29874,28 +29874,28 @@
         <v>1</v>
       </c>
       <c r="AB209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC209" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD209" s="4">
         <v>1</v>
       </c>
       <c r="AE209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG209" s="4">
         <v>1</v>
       </c>
       <c r="AH209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI209" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ209" s="4">
         <v>1</v>
@@ -29924,97 +29924,97 @@
         <v>1</v>
       </c>
       <c r="E210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F210" s="4">
         <v>1</v>
       </c>
       <c r="G210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" s="4">
         <v>1</v>
       </c>
       <c r="J210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L210" s="1">
         <v>3</v>
       </c>
       <c r="M210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N210" s="4">
         <v>1</v>
       </c>
       <c r="O210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P210" s="4">
         <v>1</v>
       </c>
       <c r="Q210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T210" s="4">
         <v>1</v>
       </c>
       <c r="U210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V210" s="4">
         <v>1</v>
       </c>
       <c r="W210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X210" s="4">
         <v>1</v>
       </c>
       <c r="Y210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z210" s="4">
         <v>1</v>
       </c>
       <c r="AA210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE210" s="1">
         <v>3</v>
       </c>
       <c r="AF210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI210" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ210" s="4">
         <v>1</v>
@@ -30040,103 +30040,103 @@
         <v>1</v>
       </c>
       <c r="D211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F211" s="4">
         <v>1</v>
       </c>
       <c r="G211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H211" s="4">
         <v>1</v>
       </c>
       <c r="I211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K211" s="4">
         <v>1</v>
       </c>
       <c r="L211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P211" s="4">
         <v>1</v>
       </c>
       <c r="Q211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R211" s="4">
         <v>1</v>
       </c>
       <c r="S211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T211" s="4">
         <v>1</v>
       </c>
       <c r="U211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V211" s="4">
         <v>1</v>
       </c>
       <c r="W211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X211" s="4">
         <v>1</v>
       </c>
       <c r="Y211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z211" s="4">
         <v>1</v>
       </c>
       <c r="AA211" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC211" s="4">
         <v>1</v>
       </c>
       <c r="AD211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF211" s="4">
         <v>1</v>
       </c>
       <c r="AG211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH211" s="4">
         <v>1</v>
       </c>
       <c r="AI211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK211" s="4">
         <v>1</v>
@@ -30159,7 +30159,7 @@
         <v>1</v>
       </c>
       <c r="D212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E212" s="4">
         <v>1</v>
@@ -30168,13 +30168,13 @@
         <v>2</v>
       </c>
       <c r="G212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H212" s="4">
         <v>1</v>
       </c>
       <c r="I212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212" s="4">
         <v>1</v>
@@ -30183,7 +30183,7 @@
         <v>1</v>
       </c>
       <c r="L212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M212" s="4">
         <v>1</v>
@@ -30192,43 +30192,43 @@
         <v>1</v>
       </c>
       <c r="O212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P212" s="4">
         <v>1</v>
       </c>
       <c r="Q212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R212" s="4">
         <v>1</v>
       </c>
       <c r="S212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T212" s="1">
         <v>3</v>
       </c>
       <c r="U212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z212" s="1">
         <v>2</v>
       </c>
       <c r="AA212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB212" s="4">
         <v>1</v>
@@ -30240,22 +30240,22 @@
         <v>1</v>
       </c>
       <c r="AE212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF212" s="4">
         <v>1</v>
       </c>
       <c r="AG212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI212" s="4">
         <v>1</v>
       </c>
       <c r="AJ212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK212" s="4">
         <v>1</v>
@@ -30278,103 +30278,103 @@
         <v>1</v>
       </c>
       <c r="D213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E213" s="4">
         <v>1</v>
       </c>
       <c r="F213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T213" s="4">
         <v>1</v>
       </c>
       <c r="U213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V213" s="4">
         <v>1</v>
       </c>
       <c r="W213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X213" s="4">
         <v>1</v>
       </c>
       <c r="Y213" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC213" s="4">
         <v>1</v>
       </c>
       <c r="AD213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE213" s="1">
         <v>2</v>
       </c>
       <c r="AF213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG213" s="4">
         <v>1</v>
       </c>
       <c r="AH213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI213" s="4">
         <v>1</v>
       </c>
       <c r="AJ213" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK213" s="4">
         <v>1</v>
@@ -30394,16 +30394,16 @@
         <v>1</v>
       </c>
       <c r="C214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E214" s="4">
         <v>1</v>
       </c>
       <c r="F214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G214" s="4">
         <v>1</v>
@@ -30421,7 +30421,7 @@
         <v>1</v>
       </c>
       <c r="L214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M214" s="4">
         <v>1</v>
@@ -30436,25 +30436,25 @@
         <v>1</v>
       </c>
       <c r="Q214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R214" s="4">
         <v>1</v>
       </c>
       <c r="S214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T214" s="4">
         <v>1</v>
       </c>
       <c r="U214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X214" s="4">
         <v>1</v>
@@ -30475,7 +30475,7 @@
         <v>1</v>
       </c>
       <c r="AD214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE214" s="4">
         <v>1</v>
@@ -30487,16 +30487,16 @@
         <v>1</v>
       </c>
       <c r="AH214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI214" s="4">
         <v>1</v>
       </c>
       <c r="AJ214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL214" s="4">
         <v>1</v>
@@ -30513,109 +30513,109 @@
         <v>1</v>
       </c>
       <c r="C215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F215" s="1">
         <v>3</v>
       </c>
       <c r="G215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q215" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R215" s="4">
         <v>1</v>
       </c>
       <c r="S215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T215" s="4">
         <v>1</v>
       </c>
       <c r="U215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V215" s="4">
         <v>1</v>
       </c>
       <c r="W215" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB215" s="1">
         <v>2</v>
       </c>
       <c r="AC215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ215" s="4">
         <v>1</v>
       </c>
       <c r="AK215" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL215" s="4">
         <v>1</v>
@@ -30632,7 +30632,7 @@
         <v>1</v>
       </c>
       <c r="C216" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D216" s="4">
         <v>1</v>
@@ -30644,7 +30644,7 @@
         <v>1</v>
       </c>
       <c r="G216" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H216" s="4">
         <v>1</v>
@@ -30662,13 +30662,13 @@
         <v>1</v>
       </c>
       <c r="M216" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N216" s="4">
         <v>1</v>
       </c>
       <c r="O216" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P216" s="4">
         <v>1</v>
@@ -30680,19 +30680,19 @@
         <v>1</v>
       </c>
       <c r="S216" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T216" s="4">
         <v>1</v>
       </c>
       <c r="U216" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V216" s="4">
         <v>1</v>
       </c>
       <c r="W216" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X216" s="4">
         <v>1</v>
@@ -30701,13 +30701,13 @@
         <v>1</v>
       </c>
       <c r="Z216" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA216" s="4">
         <v>1</v>
       </c>
       <c r="AB216" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC216" s="4">
         <v>1</v>
@@ -30725,7 +30725,7 @@
         <v>1</v>
       </c>
       <c r="AH216" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI216" s="4">
         <v>1</v>
@@ -30734,7 +30734,7 @@
         <v>1</v>
       </c>
       <c r="AK216" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL216" s="4">
         <v>1</v>
@@ -30748,115 +30748,115 @@
         <v>1</v>
       </c>
       <c r="B217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" s="4">
         <v>1</v>
       </c>
       <c r="K217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X217" s="4">
         <v>1</v>
       </c>
       <c r="Y217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL217" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM217" s="4">
         <v>1</v>
@@ -30879,7 +30879,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G218" s="4">
         <v>1</v>
@@ -30906,7 +30906,7 @@
         <v>1</v>
       </c>
       <c r="O218" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P218" s="4">
         <v>1</v>
@@ -30918,7 +30918,7 @@
         <v>1</v>
       </c>
       <c r="S218" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T218" s="4">
         <v>1</v>
@@ -30930,7 +30930,7 @@
         <v>1</v>
       </c>
       <c r="W218" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X218" s="4">
         <v>1</v>
@@ -30945,7 +30945,7 @@
         <v>1</v>
       </c>
       <c r="AB218" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC218" s="4">
         <v>1</v>
@@ -30963,7 +30963,7 @@
         <v>1</v>
       </c>
       <c r="AH218" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI218" s="4">
         <v>1</v>
@@ -30986,115 +30986,115 @@
         <v>1</v>
       </c>
       <c r="B219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T219" s="4">
         <v>1</v>
       </c>
       <c r="U219" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL219" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM219" s="4">
         <v>1</v>
@@ -31108,7 +31108,7 @@
         <v>1</v>
       </c>
       <c r="C220" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D220" s="4">
         <v>1</v>
@@ -31117,7 +31117,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G220" s="4">
         <v>1</v>
@@ -31129,7 +31129,7 @@
         <v>1</v>
       </c>
       <c r="J220" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K220" s="4">
         <v>1</v>
@@ -31144,7 +31144,7 @@
         <v>1</v>
       </c>
       <c r="O220" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P220" s="4">
         <v>1</v>
@@ -31156,13 +31156,13 @@
         <v>1</v>
       </c>
       <c r="S220" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T220" s="4">
         <v>1</v>
       </c>
       <c r="U220" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V220" s="4">
         <v>1</v>
@@ -31201,7 +31201,7 @@
         <v>1</v>
       </c>
       <c r="AH220" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI220" s="4">
         <v>1</v>
@@ -31210,7 +31210,7 @@
         <v>1</v>
       </c>
       <c r="AK220" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL220" s="4">
         <v>1</v>
@@ -31227,109 +31227,109 @@
         <v>1</v>
       </c>
       <c r="C221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D221" s="4">
         <v>1</v>
       </c>
       <c r="E221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O221" s="1">
         <v>2</v>
       </c>
       <c r="P221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q221" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R221" s="4">
         <v>1</v>
       </c>
       <c r="S221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T221" s="4">
         <v>1</v>
       </c>
       <c r="U221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V221" s="4">
         <v>1</v>
       </c>
       <c r="W221" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE221" s="4">
         <v>1</v>
       </c>
       <c r="AF221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH221" s="1">
         <v>2</v>
       </c>
       <c r="AI221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL221" s="4">
         <v>1</v>
@@ -31349,13 +31349,13 @@
         <v>2</v>
       </c>
       <c r="D222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E222" s="4">
         <v>1</v>
       </c>
       <c r="F222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G222" s="4">
         <v>1</v>
@@ -31382,34 +31382,34 @@
         <v>1</v>
       </c>
       <c r="O222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P222" s="4">
         <v>1</v>
       </c>
       <c r="Q222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S222" s="1">
         <v>2</v>
       </c>
       <c r="T222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y222" s="1">
         <v>2</v>
@@ -31439,16 +31439,16 @@
         <v>1</v>
       </c>
       <c r="AH222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI222" s="4">
         <v>1</v>
       </c>
       <c r="AJ222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL222" s="4">
         <v>1</v>
@@ -31468,13 +31468,13 @@
         <v>1</v>
       </c>
       <c r="D223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E223" s="4">
         <v>1</v>
       </c>
       <c r="F223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G223" s="4">
         <v>1</v>
@@ -31483,88 +31483,88 @@
         <v>2</v>
       </c>
       <c r="I223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O223" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P223" s="4">
         <v>1</v>
       </c>
       <c r="Q223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R223" s="4">
         <v>1</v>
       </c>
       <c r="S223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T223" s="4">
         <v>1</v>
       </c>
       <c r="U223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V223" s="4">
         <v>1</v>
       </c>
       <c r="W223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X223" s="4">
         <v>1</v>
       </c>
       <c r="Y223" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG223" s="4">
         <v>1</v>
       </c>
       <c r="AH223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI223" s="4">
         <v>1</v>
       </c>
       <c r="AJ223" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK223" s="4">
         <v>1</v>
@@ -31587,22 +31587,22 @@
         <v>1</v>
       </c>
       <c r="D224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E224" s="4">
         <v>1</v>
       </c>
       <c r="F224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H224" s="4">
         <v>1</v>
       </c>
       <c r="I224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J224" s="4">
         <v>1</v>
@@ -31611,7 +31611,7 @@
         <v>1</v>
       </c>
       <c r="L224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M224" s="4">
         <v>1</v>
@@ -31620,19 +31620,19 @@
         <v>1</v>
       </c>
       <c r="O224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P224" s="4">
         <v>1</v>
       </c>
       <c r="Q224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R224" s="4">
         <v>1</v>
       </c>
       <c r="S224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T224" s="4">
         <v>1</v>
@@ -31644,13 +31644,13 @@
         <v>1</v>
       </c>
       <c r="W224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X224" s="4">
         <v>1</v>
       </c>
       <c r="Y224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z224" s="4">
         <v>1</v>
@@ -31668,22 +31668,22 @@
         <v>1</v>
       </c>
       <c r="AE224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF224" s="4">
         <v>1</v>
       </c>
       <c r="AG224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI224" s="4">
         <v>1</v>
       </c>
       <c r="AJ224" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK224" s="4">
         <v>1</v>
@@ -31695,7 +31695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>0</v>
       </c>
@@ -31706,103 +31706,103 @@
         <v>1</v>
       </c>
       <c r="D225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F225" s="4">
         <v>1</v>
       </c>
       <c r="G225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H225" s="4">
         <v>1</v>
       </c>
       <c r="I225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K225" s="4">
         <v>1</v>
       </c>
       <c r="L225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R225" s="4">
         <v>1</v>
       </c>
       <c r="S225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T225" s="4">
         <v>1</v>
       </c>
       <c r="U225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V225" s="4">
         <v>1</v>
       </c>
       <c r="W225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X225" s="4">
         <v>1</v>
       </c>
       <c r="Y225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z225" s="4">
         <v>1</v>
       </c>
       <c r="AA225" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC225" s="4">
         <v>1</v>
       </c>
       <c r="AD225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG225" s="1">
         <v>2</v>
       </c>
       <c r="AH225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ225" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK225" s="4">
         <v>1</v>
@@ -31814,7 +31814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -31834,91 +31834,91 @@
         <v>1</v>
       </c>
       <c r="G226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" s="4">
         <v>1</v>
       </c>
       <c r="J226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L226" s="4">
         <v>1</v>
       </c>
       <c r="M226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N226" s="4">
         <v>1</v>
       </c>
       <c r="O226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P226" s="4">
         <v>1</v>
       </c>
       <c r="Q226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R226" s="4">
         <v>1</v>
       </c>
       <c r="S226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U226" s="1">
         <v>2</v>
       </c>
       <c r="V226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X226" s="4">
         <v>1</v>
       </c>
       <c r="Y226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z226" s="4">
         <v>1</v>
       </c>
       <c r="AA226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB226" s="4">
         <v>1</v>
       </c>
       <c r="AC226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE226" s="4">
         <v>1</v>
       </c>
       <c r="AF226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH226" s="4">
         <v>1</v>
       </c>
       <c r="AI226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ226" s="4">
         <v>1</v>
@@ -31933,7 +31933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>0</v>
       </c>
@@ -31947,28 +31947,28 @@
         <v>1</v>
       </c>
       <c r="E227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F227" s="1">
         <v>2</v>
       </c>
       <c r="G227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J227" s="4">
         <v>1</v>
       </c>
       <c r="K227" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M227" s="4">
         <v>1</v>
@@ -31977,7 +31977,7 @@
         <v>1</v>
       </c>
       <c r="O227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P227" s="4">
         <v>1</v>
@@ -31995,37 +31995,37 @@
         <v>1</v>
       </c>
       <c r="U227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V227" s="4">
         <v>1</v>
       </c>
       <c r="W227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X227" s="4">
         <v>1</v>
       </c>
       <c r="Y227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z227" s="4">
         <v>1</v>
       </c>
       <c r="AA227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC227" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD227" s="4">
         <v>1</v>
       </c>
       <c r="AE227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF227" s="4">
         <v>1</v>
@@ -32034,10 +32034,10 @@
         <v>1</v>
       </c>
       <c r="AH227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ227" s="4">
         <v>1</v>
@@ -32051,8 +32051,53 @@
       <c r="AM227" s="1">
         <v>0</v>
       </c>
+      <c r="AN227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB227" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>0</v>
       </c>
@@ -32069,16 +32114,16 @@
         <v>1</v>
       </c>
       <c r="F228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H228" s="4">
         <v>1</v>
       </c>
       <c r="I228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J228" s="4">
         <v>1</v>
@@ -32087,55 +32132,55 @@
         <v>1</v>
       </c>
       <c r="L228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N228" s="4">
         <v>1</v>
       </c>
       <c r="O228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P228" s="4">
         <v>1</v>
       </c>
       <c r="Q228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R228" s="4">
         <v>1</v>
       </c>
       <c r="S228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T228" s="4">
         <v>1</v>
       </c>
       <c r="U228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V228" s="4">
         <v>1</v>
       </c>
       <c r="W228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z228" s="4">
         <v>1</v>
       </c>
       <c r="AA228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC228" s="4">
         <v>1</v>
@@ -32144,16 +32189,16 @@
         <v>1</v>
       </c>
       <c r="AE228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH228" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI228" s="4">
         <v>1</v>
@@ -32170,8 +32215,50 @@
       <c r="AM228" s="1">
         <v>0</v>
       </c>
+      <c r="AN228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ228" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA228" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="229" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -32191,85 +32278,85 @@
         <v>1</v>
       </c>
       <c r="G229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H229" s="4">
         <v>1</v>
       </c>
       <c r="I229" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L229" s="4">
         <v>1</v>
       </c>
       <c r="M229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P229" s="4">
         <v>1</v>
       </c>
       <c r="Q229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R229" s="4">
         <v>1</v>
       </c>
       <c r="S229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T229" s="4">
         <v>1</v>
       </c>
       <c r="U229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V229" s="4">
         <v>1</v>
       </c>
       <c r="W229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X229" s="4">
         <v>1</v>
       </c>
       <c r="Y229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB229" s="4">
         <v>1</v>
       </c>
       <c r="AC229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE229" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF229" s="4">
         <v>1</v>
       </c>
       <c r="AG229" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH229" s="4">
         <v>1</v>
@@ -32289,8 +32376,47 @@
       <c r="AM229" s="1">
         <v>0</v>
       </c>
+      <c r="AN229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY229" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ229" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="230" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>0</v>
       </c>
@@ -32310,10 +32436,10 @@
         <v>1</v>
       </c>
       <c r="G230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H230" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" s="4">
         <v>1</v>
@@ -32322,61 +32448,61 @@
         <v>1</v>
       </c>
       <c r="K230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M230" s="4">
         <v>1</v>
       </c>
       <c r="N230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O230" s="1">
         <v>3</v>
       </c>
       <c r="P230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z230" s="4">
         <v>1</v>
       </c>
       <c r="AA230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD230" s="1">
         <v>3</v>
@@ -32385,10 +32511,10 @@
         <v>1</v>
       </c>
       <c r="AF230" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG230" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH230" s="4">
         <v>1</v>
@@ -32408,8 +32534,47 @@
       <c r="AM230" s="1">
         <v>0</v>
       </c>
+      <c r="AN230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY230" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ230" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="231" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -32432,25 +32597,25 @@
         <v>1</v>
       </c>
       <c r="H231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K231" s="4">
         <v>1</v>
       </c>
       <c r="L231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O231" s="4">
         <v>1</v>
@@ -32459,25 +32624,25 @@
         <v>1</v>
       </c>
       <c r="Q231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R231" s="4">
         <v>1</v>
       </c>
       <c r="S231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T231" s="4">
         <v>1</v>
       </c>
       <c r="U231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V231" s="4">
         <v>1</v>
       </c>
       <c r="W231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X231" s="4">
         <v>1</v>
@@ -32486,25 +32651,25 @@
         <v>1</v>
       </c>
       <c r="Z231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA231" s="4">
         <v>1</v>
       </c>
       <c r="AB231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC231" s="4">
         <v>1</v>
       </c>
       <c r="AD231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG231" s="4">
         <v>1</v>
@@ -32527,8 +32692,44 @@
       <c r="AM231" s="1">
         <v>0</v>
       </c>
+      <c r="AN231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY231" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="232" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -32544,7 +32745,7 @@
       <c r="E232" s="1">
         <v>0</v>
       </c>
-      <c r="F232" s="8">
+      <c r="F232" s="1">
         <v>0</v>
       </c>
       <c r="G232" s="1">
@@ -32557,10 +32758,10 @@
         <v>1</v>
       </c>
       <c r="J232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L232" s="4">
         <v>1</v>
@@ -32569,13 +32770,13 @@
         <v>1</v>
       </c>
       <c r="N232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q232" s="1">
         <v>2</v>
@@ -32590,34 +32791,34 @@
         <v>1</v>
       </c>
       <c r="U232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V232" s="4">
         <v>1</v>
       </c>
       <c r="W232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y232" s="4">
         <v>1</v>
       </c>
       <c r="Z232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB232" s="4">
         <v>1</v>
       </c>
       <c r="AC232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE232" s="4">
         <v>1</v>
@@ -32628,7 +32829,7 @@
       <c r="AG232" s="1">
         <v>0</v>
       </c>
-      <c r="AH232" s="8">
+      <c r="AH232" s="1">
         <v>0</v>
       </c>
       <c r="AI232" s="1">
@@ -32646,8 +32847,41 @@
       <c r="AM232" s="1">
         <v>0</v>
       </c>
+      <c r="AN232" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO232" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP232" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ232" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR232" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS232" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT232" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU232" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV232" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW232" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX232" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="233" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>0</v>
       </c>
@@ -32660,7 +32894,7 @@
       <c r="D233" s="1">
         <v>0</v>
       </c>
-      <c r="E233" s="8">
+      <c r="E233" s="1">
         <v>0</v>
       </c>
       <c r="F233" s="1">
@@ -32679,16 +32913,16 @@
         <v>1</v>
       </c>
       <c r="K233" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L233" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M233" s="4">
         <v>1</v>
       </c>
       <c r="N233" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O233" s="4">
         <v>1</v>
@@ -32697,25 +32931,25 @@
         <v>1</v>
       </c>
       <c r="Q233" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R233" s="4">
         <v>1</v>
       </c>
       <c r="S233" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T233" s="4">
         <v>1</v>
       </c>
       <c r="U233" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V233" s="4">
         <v>1</v>
       </c>
       <c r="W233" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X233" s="4">
         <v>1</v>
@@ -32727,13 +32961,13 @@
         <v>1</v>
       </c>
       <c r="AA233" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB233" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC233" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD233" s="4">
         <v>1</v>
@@ -32750,7 +32984,7 @@
       <c r="AH233" s="1">
         <v>0</v>
       </c>
-      <c r="AI233" s="8">
+      <c r="AI233" s="1">
         <v>0</v>
       </c>
       <c r="AJ233" s="1">
@@ -32765,8 +32999,35 @@
       <c r="AM233" s="1">
         <v>0</v>
       </c>
+      <c r="AN233" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO233" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP233" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ233" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR233" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS233" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT233" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU233" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV233" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="234" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -32776,7 +33037,7 @@
       <c r="C234" s="1">
         <v>0</v>
       </c>
-      <c r="D234" s="8">
+      <c r="D234" s="1">
         <v>0</v>
       </c>
       <c r="E234" s="1">
@@ -32807,13 +33068,13 @@
         <v>1</v>
       </c>
       <c r="N234" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O234" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P234" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q234" s="4">
         <v>1</v>
@@ -32822,13 +33083,13 @@
         <v>1</v>
       </c>
       <c r="S234" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T234" s="4">
         <v>1</v>
       </c>
       <c r="U234" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V234" s="4">
         <v>1</v>
@@ -32837,16 +33098,16 @@
         <v>1</v>
       </c>
       <c r="X234" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y234" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z234" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA234" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB234" s="4">
         <v>1</v>
@@ -32872,7 +33133,7 @@
       <c r="AI234" s="1">
         <v>0</v>
       </c>
-      <c r="AJ234" s="8">
+      <c r="AJ234" s="1">
         <v>0</v>
       </c>
       <c r="AK234" s="1">
@@ -32884,8 +33145,32 @@
       <c r="AM234" s="1">
         <v>0</v>
       </c>
+      <c r="AN234" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO234" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP234" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ234" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR234" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS234" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT234" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU234" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>0</v>
       </c>
@@ -32932,31 +33217,31 @@
         <v>1</v>
       </c>
       <c r="P235" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q235" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R235" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S235" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T235" s="4">
         <v>1</v>
       </c>
       <c r="U235" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V235" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W235" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X235" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y235" s="4">
         <v>1</v>
@@ -32994,7 +33279,7 @@
       <c r="AJ235" s="1">
         <v>0</v>
       </c>
-      <c r="AK235" s="8">
+      <c r="AK235" s="1">
         <v>0</v>
       </c>
       <c r="AL235" s="1">
@@ -33003,8 +33288,26 @@
       <c r="AM235" s="1">
         <v>0</v>
       </c>
+      <c r="AN235" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO235" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP235" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ235" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR235" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS235" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="236" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>0</v>
       </c>
@@ -33060,13 +33363,13 @@
         <v>1</v>
       </c>
       <c r="S236" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T236" s="4">
         <v>1</v>
       </c>
       <c r="U236" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V236" s="4">
         <v>1</v>
@@ -33116,14 +33419,23 @@
       <c r="AK236" s="1">
         <v>0</v>
       </c>
-      <c r="AL236" s="8">
+      <c r="AL236" s="1">
         <v>0</v>
       </c>
       <c r="AM236" s="1">
         <v>0</v>
       </c>
+      <c r="AN236" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO236" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP236" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="237" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>0</v>
       </c>
@@ -33242,11 +33554,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C239" s="1">
+        <v>0</v>
+      </c>
       <c r="T239" s="1"/>
       <c r="U239" s="4"/>
     </row>
-    <row r="240" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:54" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>0</v>
       </c>
@@ -33371,7 +33691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>0</v>
       </c>
@@ -33433,7 +33753,7 @@
         <v>1</v>
       </c>
       <c r="U241" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V241" s="4">
         <v>1</v>
@@ -33496,7 +33816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>0</v>
       </c>
@@ -33555,13 +33875,13 @@
         <v>1</v>
       </c>
       <c r="T242" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U242" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V242" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W242" s="4">
         <v>1</v>
@@ -33621,7 +33941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -33680,13 +34000,13 @@
         <v>1</v>
       </c>
       <c r="T243" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U243" s="4">
         <v>1</v>
       </c>
       <c r="V243" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W243" s="4">
         <v>1</v>
@@ -33746,7 +34066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>0</v>
       </c>
@@ -33802,19 +34122,19 @@
         <v>1</v>
       </c>
       <c r="S244" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T244" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U244" s="4">
         <v>1</v>
       </c>
       <c r="V244" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W244" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X244" s="4">
         <v>1</v>
@@ -33870,8 +34190,11 @@
       <c r="AO244" s="1">
         <v>0</v>
       </c>
+      <c r="AP244" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="245" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -33927,16 +34250,16 @@
         <v>1</v>
       </c>
       <c r="S245" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T245" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U245" s="4">
         <v>1</v>
       </c>
       <c r="V245" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W245" s="4">
         <v>1</v>
@@ -33995,8 +34318,11 @@
       <c r="AO245" s="1">
         <v>0</v>
       </c>
+      <c r="AP245" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="246" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -34049,19 +34375,19 @@
         <v>1</v>
       </c>
       <c r="R246" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S246" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T246" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U246" s="4">
         <v>1</v>
       </c>
       <c r="V246" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W246" s="4">
         <v>1</v>
@@ -34120,8 +34446,14 @@
       <c r="AO246" s="1">
         <v>0</v>
       </c>
+      <c r="AP246" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ246" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="247" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>0</v>
       </c>
@@ -34174,7 +34506,7 @@
         <v>1</v>
       </c>
       <c r="R247" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S247" s="4">
         <v>1</v>
@@ -34186,13 +34518,13 @@
         <v>1</v>
       </c>
       <c r="V247" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W247" s="4">
         <v>1</v>
       </c>
       <c r="X247" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y247" s="4">
         <v>1</v>
@@ -34245,8 +34577,14 @@
       <c r="AO247" s="1">
         <v>0</v>
       </c>
+      <c r="AP247" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ247" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="248" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>0</v>
       </c>
@@ -34296,10 +34634,10 @@
         <v>1</v>
       </c>
       <c r="Q248" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R248" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S248" s="4">
         <v>1</v>
@@ -34311,16 +34649,16 @@
         <v>1</v>
       </c>
       <c r="V248" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W248" s="4">
         <v>1</v>
       </c>
       <c r="X248" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y248" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z248" s="4">
         <v>1</v>
@@ -34370,8 +34708,17 @@
       <c r="AO248" s="1">
         <v>0</v>
       </c>
+      <c r="AP248" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ248" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR248" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="249" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>0</v>
       </c>
@@ -34424,19 +34771,19 @@
         <v>2</v>
       </c>
       <c r="R249" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S249" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T249" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U249" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V249" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W249" s="4">
         <v>1</v>
@@ -34445,7 +34792,7 @@
         <v>1</v>
       </c>
       <c r="Y249" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z249" s="4">
         <v>1</v>
@@ -34495,8 +34842,17 @@
       <c r="AO249" s="1">
         <v>0</v>
       </c>
+      <c r="AP249" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ249" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR249" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="250" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -34543,7 +34899,7 @@
         <v>1</v>
       </c>
       <c r="P250" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q250" s="4">
         <v>1</v>
@@ -34555,25 +34911,25 @@
         <v>1</v>
       </c>
       <c r="T250" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U250" s="4">
         <v>1</v>
       </c>
       <c r="V250" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W250" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X250" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y250" s="1">
         <v>3</v>
       </c>
       <c r="Z250" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA250" s="4">
         <v>1</v>
@@ -34620,8 +34976,20 @@
       <c r="AO250" s="1">
         <v>0</v>
       </c>
+      <c r="AP250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS250" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="251" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>0</v>
       </c>
@@ -34668,25 +35036,25 @@
         <v>1</v>
       </c>
       <c r="P251" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q251" s="4">
         <v>1</v>
       </c>
       <c r="R251" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S251" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T251" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U251" s="4">
         <v>1</v>
       </c>
       <c r="V251" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W251" s="4">
         <v>1</v>
@@ -34698,7 +35066,7 @@
         <v>1</v>
       </c>
       <c r="Z251" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA251" s="4">
         <v>1</v>
@@ -34745,8 +35113,20 @@
       <c r="AO251" s="1">
         <v>0</v>
       </c>
+      <c r="AP251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS251" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="252" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>0</v>
       </c>
@@ -34790,43 +35170,43 @@
         <v>1</v>
       </c>
       <c r="O252" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P252" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q252" s="4">
         <v>1</v>
       </c>
       <c r="R252" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S252" s="4">
         <v>1</v>
       </c>
       <c r="T252" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U252" s="4">
         <v>1</v>
       </c>
       <c r="V252" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W252" s="4">
         <v>1</v>
       </c>
       <c r="X252" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y252" s="4">
         <v>1</v>
       </c>
       <c r="Z252" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA252" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB252" s="4">
         <v>1</v>
@@ -34870,8 +35250,23 @@
       <c r="AO252" s="1">
         <v>0</v>
       </c>
+      <c r="AP252" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ252" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR252" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS252" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT252" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="253" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -34915,7 +35310,7 @@
         <v>1</v>
       </c>
       <c r="O253" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P253" s="4">
         <v>1</v>
@@ -34924,13 +35319,13 @@
         <v>1</v>
       </c>
       <c r="R253" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S253" s="4">
         <v>1</v>
       </c>
       <c r="T253" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U253" s="4">
         <v>1</v>
@@ -34939,19 +35334,19 @@
         <v>3</v>
       </c>
       <c r="W253" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X253" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y253" s="4">
         <v>1</v>
       </c>
       <c r="Z253" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA253" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB253" s="4">
         <v>1</v>
@@ -34995,8 +35390,23 @@
       <c r="AO253" s="1">
         <v>0</v>
       </c>
+      <c r="AP253" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ253" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR253" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS253" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT253" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="254" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -35037,25 +35447,25 @@
         <v>1</v>
       </c>
       <c r="N254" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O254" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P254" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q254" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R254" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S254" s="4">
         <v>1</v>
       </c>
       <c r="T254" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U254" s="4">
         <v>1</v>
@@ -35076,10 +35486,10 @@
         <v>1</v>
       </c>
       <c r="AA254" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB254" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC254" s="4">
         <v>1</v>
@@ -35120,8 +35530,26 @@
       <c r="AO254" s="1">
         <v>0</v>
       </c>
+      <c r="AP254" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ254" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR254" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS254" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT254" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU254" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="255" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -35180,28 +35608,28 @@
         <v>1</v>
       </c>
       <c r="T255" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U255" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V255" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W255" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X255" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y255" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z255" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA255" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB255" s="1">
         <v>3</v>
@@ -35245,8 +35673,26 @@
       <c r="AO255" s="1">
         <v>0</v>
       </c>
+      <c r="AP255" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ255" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR255" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS255" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT255" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU255" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="256" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:48" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>0</v>
       </c>
@@ -35284,28 +35730,28 @@
         <v>1</v>
       </c>
       <c r="M256" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N256" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O256" s="4">
         <v>1</v>
       </c>
       <c r="P256" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q256" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R256" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S256" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T256" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U256" s="4">
         <v>1</v>
@@ -35332,7 +35778,7 @@
         <v>1</v>
       </c>
       <c r="AC256" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD256" s="4">
         <v>1</v>
@@ -35370,8 +35816,29 @@
       <c r="AO256" s="1">
         <v>0</v>
       </c>
+      <c r="AP256" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ256" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR256" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS256" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT256" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU256" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV256" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="257" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>0</v>
       </c>
@@ -35409,7 +35876,7 @@
         <v>1</v>
       </c>
       <c r="M257" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N257" s="4">
         <v>1</v>
@@ -35418,7 +35885,7 @@
         <v>1</v>
       </c>
       <c r="P257" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q257" s="4">
         <v>1</v>
@@ -35436,28 +35903,28 @@
         <v>1</v>
       </c>
       <c r="V257" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W257" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X257" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y257" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z257" s="1">
         <v>2</v>
       </c>
       <c r="AA257" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB257" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC257" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD257" s="4">
         <v>1</v>
@@ -35495,8 +35962,29 @@
       <c r="AO257" s="1">
         <v>0</v>
       </c>
+      <c r="AP257" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ257" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR257" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS257" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT257" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU257" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV257" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="258" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -35534,34 +36022,34 @@
         <v>2</v>
       </c>
       <c r="M258" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N258" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O258" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P258" s="1">
         <v>2</v>
       </c>
       <c r="Q258" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R258" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S258" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T258" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U258" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V258" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W258" s="4">
         <v>1</v>
@@ -35582,7 +36070,7 @@
         <v>1</v>
       </c>
       <c r="AC258" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD258" s="1">
         <v>2</v>
@@ -35620,8 +36108,32 @@
       <c r="AO258" s="1">
         <v>0</v>
       </c>
+      <c r="AP258" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ258" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR258" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS258" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT258" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU258" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV258" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW258" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="259" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>0</v>
       </c>
@@ -35656,7 +36168,7 @@
         <v>1</v>
       </c>
       <c r="L259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M259" s="4">
         <v>1</v>
@@ -35671,7 +36183,7 @@
         <v>1</v>
       </c>
       <c r="Q259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R259" s="4">
         <v>1</v>
@@ -35686,31 +36198,31 @@
         <v>1</v>
       </c>
       <c r="V259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE259" s="4">
         <v>1</v>
@@ -35745,8 +36257,32 @@
       <c r="AO259" s="1">
         <v>0</v>
       </c>
+      <c r="AP259" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ259" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR259" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS259" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT259" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU259" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV259" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW259" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="260" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -35778,10 +36314,10 @@
         <v>1</v>
       </c>
       <c r="K260" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L260" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M260" s="4">
         <v>1</v>
@@ -35790,34 +36326,34 @@
         <v>3</v>
       </c>
       <c r="O260" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P260" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q260" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R260" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S260" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T260" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U260" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V260" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W260" s="4">
         <v>1</v>
       </c>
       <c r="X260" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y260" s="4">
         <v>1</v>
@@ -35835,10 +36371,10 @@
         <v>1</v>
       </c>
       <c r="AD260" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE260" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF260" s="4">
         <v>1</v>
@@ -35870,8 +36406,35 @@
       <c r="AO260" s="1">
         <v>0</v>
       </c>
+      <c r="AP260" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ260" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR260" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS260" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT260" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU260" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV260" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW260" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX260" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="261" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>0</v>
       </c>
@@ -35903,25 +36466,25 @@
         <v>1</v>
       </c>
       <c r="K261" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L261" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M261" s="4">
         <v>1</v>
       </c>
       <c r="N261" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O261" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P261" s="1">
         <v>2</v>
       </c>
       <c r="Q261" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R261" s="4">
         <v>1</v>
@@ -35933,7 +36496,7 @@
         <v>1</v>
       </c>
       <c r="U261" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V261" s="4">
         <v>1</v>
@@ -35945,25 +36508,25 @@
         <v>1</v>
       </c>
       <c r="Y261" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z261" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA261" s="1">
         <v>2</v>
       </c>
       <c r="AB261" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC261" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD261" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE261" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF261" s="4">
         <v>1</v>
@@ -35995,8 +36558,35 @@
       <c r="AO261" s="1">
         <v>0</v>
       </c>
+      <c r="AP261" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ261" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR261" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS261" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT261" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU261" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV261" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW261" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX261" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="262" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -36025,10 +36615,10 @@
         <v>1</v>
       </c>
       <c r="J262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L262" s="4">
         <v>1</v>
@@ -36037,10 +36627,10 @@
         <v>1</v>
       </c>
       <c r="N262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P262" s="4">
         <v>1</v>
@@ -36049,25 +36639,25 @@
         <v>1</v>
       </c>
       <c r="R262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y262" s="4">
         <v>1</v>
@@ -36076,22 +36666,22 @@
         <v>1</v>
       </c>
       <c r="AA262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB262" s="4">
         <v>1</v>
       </c>
       <c r="AC262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD262" s="4">
         <v>1</v>
       </c>
       <c r="AE262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF262" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG262" s="4">
         <v>1</v>
@@ -36121,7 +36711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -36150,7 +36740,7 @@
         <v>1</v>
       </c>
       <c r="J263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K263" s="4">
         <v>1</v>
@@ -36159,64 +36749,64 @@
         <v>1</v>
       </c>
       <c r="M263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O263" s="4">
         <v>1</v>
       </c>
       <c r="P263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R263" s="1">
         <v>2</v>
       </c>
       <c r="S263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X263" s="1">
         <v>2</v>
       </c>
       <c r="Y263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA263" s="4">
         <v>1</v>
       </c>
       <c r="AB263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD263" s="4">
         <v>1</v>
       </c>
       <c r="AE263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF263" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG263" s="4">
         <v>1</v>
@@ -36246,7 +36836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>0</v>
       </c>
@@ -36275,7 +36865,7 @@
         <v>3</v>
       </c>
       <c r="J264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K264" s="4">
         <v>1</v>
@@ -36284,25 +36874,25 @@
         <v>2</v>
       </c>
       <c r="M264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N264" s="4">
         <v>1</v>
       </c>
       <c r="O264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T264" s="4">
         <v>1</v>
@@ -36314,25 +36904,25 @@
         <v>1</v>
       </c>
       <c r="W264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB264" s="4">
         <v>1</v>
       </c>
       <c r="AC264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD264" s="4">
         <v>1</v>
@@ -36341,10 +36931,10 @@
         <v>3</v>
       </c>
       <c r="AF264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH264" s="4">
         <v>1</v>
@@ -36370,8 +36960,41 @@
       <c r="AO264" s="1">
         <v>0</v>
       </c>
+      <c r="AP264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ264" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="265" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>0</v>
       </c>
@@ -36400,64 +37023,64 @@
         <v>1</v>
       </c>
       <c r="J265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N265" s="4">
         <v>1</v>
       </c>
       <c r="O265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S265" s="4">
         <v>1</v>
       </c>
       <c r="T265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W265" s="4">
         <v>1</v>
       </c>
       <c r="X265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB265" s="4">
         <v>1</v>
       </c>
       <c r="AC265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD265" s="4">
         <v>1</v>
@@ -36469,7 +37092,7 @@
         <v>1</v>
       </c>
       <c r="AG265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH265" s="4">
         <v>1</v>
@@ -36495,8 +37118,41 @@
       <c r="AO265" s="1">
         <v>0</v>
       </c>
+      <c r="AP265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY265" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ265" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="266" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>0</v>
       </c>
@@ -36519,22 +37175,22 @@
         <v>1</v>
       </c>
       <c r="H266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" s="4">
         <v>1</v>
       </c>
       <c r="J266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L266" s="4">
         <v>1</v>
       </c>
       <c r="M266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N266" s="4">
         <v>1</v>
@@ -36543,37 +37199,37 @@
         <v>2</v>
       </c>
       <c r="P266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q266" s="1">
         <v>3</v>
       </c>
       <c r="R266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S266" s="4">
         <v>1</v>
       </c>
       <c r="T266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U266" s="1">
         <v>2</v>
       </c>
       <c r="V266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W266" s="4">
         <v>1</v>
       </c>
       <c r="X266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y266" s="1">
         <v>3</v>
       </c>
       <c r="Z266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA266" s="1">
         <v>2</v>
@@ -36582,22 +37238,22 @@
         <v>1</v>
       </c>
       <c r="AC266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD266" s="4">
         <v>1</v>
       </c>
       <c r="AE266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF266" s="4">
         <v>1</v>
       </c>
       <c r="AG266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH266" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI266" s="4">
         <v>1</v>
@@ -36620,8 +37276,44 @@
       <c r="AO266" s="1">
         <v>0</v>
       </c>
+      <c r="AP266" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ266" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR266" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS266" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT266" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU266" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV266" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW266" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX266" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY266" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ266" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA266" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="267" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>0</v>
       </c>
@@ -36644,7 +37336,7 @@
         <v>1</v>
       </c>
       <c r="H267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" s="4">
         <v>1</v>
@@ -36659,70 +37351,70 @@
         <v>1</v>
       </c>
       <c r="M267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N267" s="4">
         <v>1</v>
       </c>
       <c r="O267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S267" s="4">
         <v>1</v>
       </c>
       <c r="T267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W267" s="4">
         <v>1</v>
       </c>
       <c r="X267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB267" s="4">
         <v>1</v>
       </c>
       <c r="AC267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD267" s="4">
         <v>1</v>
       </c>
       <c r="AE267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF267" s="4">
         <v>1</v>
       </c>
       <c r="AG267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI267" s="4">
         <v>1</v>
@@ -36745,8 +37437,44 @@
       <c r="AO267" s="1">
         <v>0</v>
       </c>
+      <c r="AP267" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ267" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR267" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS267" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT267" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU267" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV267" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW267" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX267" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY267" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ267" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA267" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="268" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>0</v>
       </c>
@@ -36766,73 +37494,73 @@
         <v>1</v>
       </c>
       <c r="G268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L268" s="1">
         <v>3</v>
       </c>
       <c r="M268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O268" s="4">
         <v>1</v>
       </c>
       <c r="P268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T268" s="4">
         <v>1</v>
       </c>
       <c r="U268" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V268" s="4">
         <v>1</v>
       </c>
       <c r="W268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA268" s="4">
         <v>1</v>
       </c>
       <c r="AB268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD268" s="4">
         <v>1</v>
@@ -36844,13 +37572,13 @@
         <v>1</v>
       </c>
       <c r="AG268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI268" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ268" s="4">
         <v>1</v>
@@ -36870,8 +37598,47 @@
       <c r="AO268" s="1">
         <v>0</v>
       </c>
+      <c r="AP268" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ268" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR268" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS268" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT268" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU268" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV268" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW268" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX268" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY268" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ268" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA268" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB268" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="269" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>0</v>
       </c>
@@ -36891,7 +37658,7 @@
         <v>1</v>
       </c>
       <c r="G269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H269" s="4">
         <v>1</v>
@@ -36900,82 +37667,82 @@
         <v>1</v>
       </c>
       <c r="J269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K269" s="4">
         <v>1</v>
       </c>
       <c r="L269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M269" s="4">
         <v>1</v>
       </c>
       <c r="N269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P269" s="4">
         <v>1</v>
       </c>
       <c r="Q269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z269" s="4">
         <v>1</v>
       </c>
       <c r="AA269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD269" s="4">
         <v>1</v>
       </c>
       <c r="AE269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF269" s="4">
         <v>1</v>
       </c>
       <c r="AG269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH269" s="4">
         <v>1</v>
       </c>
       <c r="AI269" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ269" s="4">
         <v>1</v>
@@ -36995,8 +37762,50 @@
       <c r="AO269" s="1">
         <v>0</v>
       </c>
+      <c r="AP269" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ269" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR269" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS269" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT269" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU269" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV269" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW269" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX269" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY269" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ269" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA269" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB269" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC269" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="270" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -37013,37 +37822,37 @@
         <v>1</v>
       </c>
       <c r="F270" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G270" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H270" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" s="4">
         <v>1</v>
       </c>
       <c r="J270" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K270" s="4">
         <v>1</v>
       </c>
       <c r="L270" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M270" s="4">
         <v>1</v>
       </c>
       <c r="N270" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O270" s="4">
         <v>1</v>
       </c>
       <c r="P270" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q270" s="4">
         <v>1</v>
@@ -37073,16 +37882,16 @@
         <v>1</v>
       </c>
       <c r="Z270" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA270" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB270" s="4">
         <v>1</v>
       </c>
       <c r="AC270" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD270" s="4">
         <v>1</v>
@@ -37094,16 +37903,16 @@
         <v>1</v>
       </c>
       <c r="AG270" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH270" s="4">
         <v>1</v>
       </c>
       <c r="AI270" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ270" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK270" s="4">
         <v>1</v>
@@ -37120,8 +37929,50 @@
       <c r="AO270" s="1">
         <v>0</v>
       </c>
+      <c r="AP270" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ270" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR270" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS270" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT270" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU270" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV270" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW270" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX270" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY270" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ270" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA270" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB270" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC270" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="271" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -37138,88 +37989,88 @@
         <v>1</v>
       </c>
       <c r="F271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G271" s="1">
         <v>2</v>
       </c>
       <c r="H271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" s="4">
         <v>1</v>
       </c>
       <c r="J271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K271" s="4">
         <v>1</v>
       </c>
       <c r="L271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M271" s="4">
         <v>1</v>
       </c>
       <c r="N271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB271" s="4">
         <v>1</v>
       </c>
       <c r="AC271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD271" s="4">
         <v>1</v>
       </c>
       <c r="AE271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF271" s="4">
         <v>1</v>
       </c>
       <c r="AG271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH271" s="4">
         <v>1</v>
@@ -37228,7 +38079,7 @@
         <v>2</v>
       </c>
       <c r="AJ271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK271" s="4">
         <v>1</v>
@@ -37245,8 +38096,50 @@
       <c r="AO271" s="1">
         <v>0</v>
       </c>
+      <c r="AP271" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ271" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR271" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS271" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT271" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU271" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV271" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW271" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX271" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY271" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ271" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA271" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB271" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC271" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="272" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:56" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>0</v>
       </c>
@@ -37263,19 +38156,19 @@
         <v>3</v>
       </c>
       <c r="F272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" s="4">
         <v>1</v>
       </c>
       <c r="J272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K272" s="4">
         <v>1</v>
@@ -37287,7 +38180,7 @@
         <v>1</v>
       </c>
       <c r="N272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O272" s="4">
         <v>1</v>
@@ -37299,13 +38192,13 @@
         <v>1</v>
       </c>
       <c r="R272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S272" s="4">
         <v>1</v>
       </c>
       <c r="T272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U272" s="4">
         <v>1</v>
@@ -37320,7 +38213,7 @@
         <v>1</v>
       </c>
       <c r="Y272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z272" s="4">
         <v>1</v>
@@ -37332,25 +38225,25 @@
         <v>1</v>
       </c>
       <c r="AC272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD272" s="4">
         <v>1</v>
       </c>
       <c r="AE272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH272" s="4">
         <v>1</v>
       </c>
       <c r="AI272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ272" s="4">
         <v>1</v>
@@ -37370,8 +38263,53 @@
       <c r="AO272" s="1">
         <v>0</v>
       </c>
+      <c r="AP272" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ272" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR272" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS272" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT272" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU272" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV272" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW272" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX272" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY272" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ272" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA272" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB272" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC272" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD272" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="273" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>0</v>
       </c>
@@ -37385,7 +38323,7 @@
         <v>1</v>
       </c>
       <c r="E273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F273" s="4">
         <v>1</v>
@@ -37394,7 +38332,7 @@
         <v>1</v>
       </c>
       <c r="H273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" s="4">
         <v>1</v>
@@ -37406,19 +38344,19 @@
         <v>1</v>
       </c>
       <c r="L273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M273" s="4">
         <v>1</v>
       </c>
       <c r="N273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O273" s="4">
         <v>1</v>
       </c>
       <c r="P273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q273" s="4">
         <v>1</v>
@@ -37430,7 +38368,7 @@
         <v>1</v>
       </c>
       <c r="T273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U273" s="4">
         <v>1</v>
@@ -37439,49 +38377,49 @@
         <v>2</v>
       </c>
       <c r="W273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X273" s="4">
         <v>1</v>
       </c>
       <c r="Y273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z273" s="4">
         <v>1</v>
       </c>
       <c r="AA273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF273" s="4">
         <v>1</v>
       </c>
       <c r="AG273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH273" s="4">
         <v>1</v>
       </c>
       <c r="AI273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ273" s="4">
         <v>1</v>
       </c>
       <c r="AK273" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL273" s="4">
         <v>1</v>
@@ -37495,8 +38433,53 @@
       <c r="AO273" s="1">
         <v>0</v>
       </c>
+      <c r="AP273" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ273" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR273" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS273" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT273" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU273" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV273" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW273" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX273" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY273" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ273" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA273" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB273" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC273" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD273" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="274" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>0</v>
       </c>
@@ -37507,76 +38490,76 @@
         <v>1</v>
       </c>
       <c r="D274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F274" s="4">
         <v>1</v>
       </c>
       <c r="G274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K274" s="4">
         <v>1</v>
       </c>
       <c r="L274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M274" s="4">
         <v>1</v>
       </c>
       <c r="N274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q274" s="4">
         <v>1</v>
       </c>
       <c r="R274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S274" s="4">
         <v>1</v>
       </c>
       <c r="T274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z274" s="4">
         <v>1</v>
       </c>
       <c r="AA274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB274" s="4">
         <v>1</v>
@@ -37594,7 +38577,7 @@
         <v>1</v>
       </c>
       <c r="AG274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH274" s="4">
         <v>1</v>
@@ -37606,10 +38589,10 @@
         <v>1</v>
       </c>
       <c r="AK274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL274" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM274" s="4">
         <v>1</v>
@@ -37620,8 +38603,56 @@
       <c r="AO274" s="1">
         <v>0</v>
       </c>
+      <c r="AP274" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ274" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR274" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS274" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT274" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU274" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV274" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW274" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX274" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY274" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ274" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA274" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB274" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC274" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD274" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE274" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="275" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -37632,7 +38663,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E275" s="4">
         <v>1</v>
@@ -37644,7 +38675,7 @@
         <v>1</v>
       </c>
       <c r="H275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" s="4">
         <v>1</v>
@@ -37656,7 +38687,7 @@
         <v>1</v>
       </c>
       <c r="L275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M275" s="4">
         <v>1</v>
@@ -37674,13 +38705,13 @@
         <v>1</v>
       </c>
       <c r="R275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S275" s="4">
         <v>1</v>
       </c>
       <c r="T275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U275" s="4">
         <v>1</v>
@@ -37701,40 +38732,40 @@
         <v>1</v>
       </c>
       <c r="AA275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG275" s="1">
         <v>3</v>
       </c>
       <c r="AH275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL275" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM275" s="4">
         <v>1</v>
@@ -37745,8 +38776,56 @@
       <c r="AO275" s="1">
         <v>0</v>
       </c>
+      <c r="AP275" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ275" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR275" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS275" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT275" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU275" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV275" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW275" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX275" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY275" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ275" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA275" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB275" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC275" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD275" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE275" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="276" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>0</v>
       </c>
@@ -37754,79 +38833,79 @@
         <v>1</v>
       </c>
       <c r="C276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E276" s="4">
         <v>1</v>
       </c>
       <c r="F276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L276" s="1">
         <v>3</v>
       </c>
       <c r="M276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q276" s="4">
         <v>1</v>
       </c>
       <c r="R276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S276" s="4">
         <v>1</v>
       </c>
       <c r="T276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U276" s="4">
         <v>1</v>
       </c>
       <c r="V276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB276" s="4">
         <v>1</v>
@@ -37838,7 +38917,7 @@
         <v>1</v>
       </c>
       <c r="AE276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF276" s="4">
         <v>1</v>
@@ -37859,10 +38938,10 @@
         <v>1</v>
       </c>
       <c r="AL276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM276" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN276" s="4">
         <v>1</v>
@@ -37871,7 +38950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>0</v>
       </c>
@@ -37879,7 +38958,7 @@
         <v>1</v>
       </c>
       <c r="C277" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D277" s="4">
         <v>1</v>
@@ -37906,7 +38985,7 @@
         <v>1</v>
       </c>
       <c r="L277" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M277" s="4">
         <v>1</v>
@@ -37918,19 +38997,19 @@
         <v>1</v>
       </c>
       <c r="P277" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q277" s="4">
         <v>1</v>
       </c>
       <c r="R277" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S277" s="4">
         <v>1</v>
       </c>
       <c r="T277" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U277" s="4">
         <v>1</v>
@@ -37942,7 +39021,7 @@
         <v>1</v>
       </c>
       <c r="X277" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y277" s="4">
         <v>1</v>
@@ -37957,13 +39036,13 @@
         <v>1</v>
       </c>
       <c r="AC277" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD277" s="4">
         <v>1</v>
       </c>
       <c r="AE277" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF277" s="4">
         <v>1</v>
@@ -37972,13 +39051,13 @@
         <v>3</v>
       </c>
       <c r="AH277" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI277" s="4">
         <v>1</v>
       </c>
       <c r="AJ277" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK277" s="4">
         <v>1</v>
@@ -37987,7 +39066,7 @@
         <v>1</v>
       </c>
       <c r="AM277" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN277" s="4">
         <v>1</v>
@@ -37996,7 +39075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>1</v>
       </c>
@@ -38004,73 +39083,73 @@
         <v>2</v>
       </c>
       <c r="C278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L278" s="1">
         <v>2</v>
       </c>
       <c r="M278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P278" s="1">
         <v>2</v>
       </c>
       <c r="Q278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z278" s="4">
         <v>1</v>
@@ -38079,40 +39158,40 @@
         <v>2</v>
       </c>
       <c r="AB278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM278" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN278" s="1">
         <v>2</v>
@@ -38121,7 +39200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>1</v>
       </c>
@@ -38246,7 +39325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>0</v>
       </c>
@@ -38323,7 +39402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>0</v>
       </c>
@@ -38361,7 +39440,7 @@
         <v>1</v>
       </c>
       <c r="M282" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N282" s="4">
         <v>1</v>
@@ -38400,7 +39479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -38435,13 +39514,13 @@
         <v>1</v>
       </c>
       <c r="L283" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M283" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N283" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O283" s="4">
         <v>1</v>
@@ -38477,7 +39556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>0</v>
       </c>
@@ -38509,19 +39588,19 @@
         <v>1</v>
       </c>
       <c r="K284" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L284" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M284" s="1">
         <v>2</v>
       </c>
       <c r="N284" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O284" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P284" s="4">
         <v>1</v>
@@ -38554,7 +39633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>0</v>
       </c>
@@ -38583,10 +39662,10 @@
         <v>1</v>
       </c>
       <c r="J285" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K285" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L285" s="4">
         <v>1</v>
@@ -38598,10 +39677,10 @@
         <v>1</v>
       </c>
       <c r="O285" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P285" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q285" s="4">
         <v>1</v>
@@ -38631,7 +39710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -38657,31 +39736,31 @@
         <v>1</v>
       </c>
       <c r="I286" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J286" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K286" s="4">
         <v>1</v>
       </c>
       <c r="L286" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M286" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N286" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O286" s="4">
         <v>1</v>
       </c>
       <c r="P286" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q286" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R286" s="4">
         <v>1</v>
@@ -38708,7 +39787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -38731,22 +39810,22 @@
         <v>1</v>
       </c>
       <c r="H287" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J287" s="4">
         <v>1</v>
       </c>
       <c r="K287" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L287" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M287" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N287" s="4">
         <v>1</v>
@@ -38758,10 +39837,10 @@
         <v>1</v>
       </c>
       <c r="Q287" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R287" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S287" s="4">
         <v>1</v>
@@ -38785,7 +39864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:41" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:57" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>0</v>
       </c>
@@ -38805,19 +39884,19 @@
         <v>1</v>
       </c>
       <c r="G288" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H288" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" s="1">
         <v>2</v>
       </c>
       <c r="J288" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K288" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L288" s="4">
         <v>1</v>
@@ -38826,19 +39905,19 @@
         <v>1</v>
       </c>
       <c r="N288" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O288" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P288" s="4">
         <v>1</v>
       </c>
       <c r="Q288" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R288" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S288" s="1">
         <v>2</v>
@@ -38879,7 +39958,7 @@
         <v>1</v>
       </c>
       <c r="F289" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G289" s="1">
         <v>3</v>
@@ -38888,22 +39967,22 @@
         <v>1</v>
       </c>
       <c r="I289" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J289" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K289" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L289" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M289" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N289" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O289" s="1">
         <v>2</v>
@@ -38918,10 +39997,10 @@
         <v>1</v>
       </c>
       <c r="S289" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T289" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U289" s="4">
         <v>1</v>
@@ -38953,19 +40032,19 @@
         <v>1</v>
       </c>
       <c r="E290" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F290" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G290" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H290" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J290" s="4">
         <v>1</v>
@@ -38998,10 +40077,10 @@
         <v>1</v>
       </c>
       <c r="T290" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U290" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V290" s="4">
         <v>1</v>
@@ -39027,10 +40106,10 @@
         <v>1</v>
       </c>
       <c r="D291" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E291" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F291" s="4">
         <v>1</v>
@@ -39039,7 +40118,7 @@
         <v>2</v>
       </c>
       <c r="H291" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" s="4">
         <v>1</v>
@@ -39048,16 +40127,16 @@
         <v>1</v>
       </c>
       <c r="K291" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L291" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M291" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N291" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O291" s="4">
         <v>1</v>
@@ -39066,22 +40145,22 @@
         <v>1</v>
       </c>
       <c r="Q291" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R291" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S291" s="4">
         <v>1</v>
       </c>
       <c r="T291" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U291" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V291" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W291" s="4">
         <v>1</v>
@@ -39101,58 +40180,58 @@
         <v>1</v>
       </c>
       <c r="C292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E292" s="4">
         <v>1</v>
       </c>
       <c r="F292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L292" s="4">
         <v>1</v>
       </c>
       <c r="M292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N292" s="4">
         <v>1</v>
       </c>
       <c r="O292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P292" s="4">
         <v>1</v>
       </c>
       <c r="Q292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U292" s="4">
         <v>1</v>
@@ -39161,7 +40240,7 @@
         <v>1</v>
       </c>
       <c r="W292" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X292" s="4">
         <v>1</v>
@@ -39184,7 +40263,7 @@
         <v>1</v>
       </c>
       <c r="E293" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F293" s="1">
         <v>2</v>
@@ -39205,7 +40284,7 @@
         <v>2</v>
       </c>
       <c r="L293" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M293" s="4">
         <v>1</v>
@@ -39214,13 +40293,13 @@
         <v>2</v>
       </c>
       <c r="O293" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P293" s="4">
         <v>1</v>
       </c>
       <c r="Q293" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R293" s="4">
         <v>1</v>
@@ -39229,16 +40308,16 @@
         <v>2</v>
       </c>
       <c r="T293" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U293" s="4">
         <v>1</v>
       </c>
       <c r="V293" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W293" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X293" s="1">
         <v>2</v>
@@ -39255,49 +40334,49 @@
         <v>1</v>
       </c>
       <c r="C294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H294" s="4">
         <v>1</v>
       </c>
       <c r="I294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L294" s="4">
         <v>1</v>
       </c>
       <c r="M294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P294" s="4">
         <v>1</v>
       </c>
       <c r="Q294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R294" s="4">
         <v>1</v>
@@ -39312,10 +40391,10 @@
         <v>1</v>
       </c>
       <c r="V294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W294" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X294" s="4">
         <v>1</v>
@@ -39335,61 +40414,61 @@
         <v>1</v>
       </c>
       <c r="D295" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E295" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F295" s="4">
         <v>1</v>
       </c>
       <c r="G295" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H295" s="1">
         <v>3</v>
       </c>
       <c r="I295" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J295" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K295" s="4">
         <v>1</v>
       </c>
       <c r="L295" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M295" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N295" s="4">
         <v>1</v>
       </c>
       <c r="O295" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P295" s="4">
         <v>3</v>
       </c>
       <c r="Q295" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R295" s="4">
         <v>1</v>
       </c>
       <c r="S295" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T295" s="4">
         <v>1</v>
       </c>
       <c r="U295" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V295" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W295" s="4">
         <v>1</v>
@@ -39415,28 +40494,28 @@
         <v>1</v>
       </c>
       <c r="E296" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F296" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G296" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H296" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J296" s="4">
         <v>1</v>
       </c>
       <c r="K296" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L296" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M296" s="4">
         <v>1</v>
@@ -39445,25 +40524,25 @@
         <v>1</v>
       </c>
       <c r="O296" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P296" s="4">
         <v>1</v>
       </c>
       <c r="Q296" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R296" s="4">
         <v>1</v>
       </c>
       <c r="S296" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T296" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U296" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V296" s="4">
         <v>1</v>
@@ -39498,7 +40577,7 @@
         <v>2</v>
       </c>
       <c r="G297" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H297" s="4">
         <v>1</v>
@@ -39507,7 +40586,7 @@
         <v>1</v>
       </c>
       <c r="J297" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K297" s="1">
         <v>2</v>
@@ -39516,7 +40595,7 @@
         <v>1</v>
       </c>
       <c r="M297" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N297" s="4">
         <v>1</v>
@@ -39528,7 +40607,7 @@
         <v>1</v>
       </c>
       <c r="Q297" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R297" s="4">
         <v>1</v>
@@ -39537,7 +40616,7 @@
         <v>2</v>
       </c>
       <c r="T297" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U297" s="4">
         <v>1</v>
@@ -39575,43 +40654,43 @@
         <v>1</v>
       </c>
       <c r="G298" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H298" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J298" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K298" s="4">
         <v>1</v>
       </c>
       <c r="L298" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M298" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N298" s="4">
         <v>1</v>
       </c>
       <c r="O298" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P298" s="4">
         <v>1</v>
       </c>
       <c r="Q298" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R298" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S298" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T298" s="4">
         <v>1</v>
@@ -39655,37 +40734,37 @@
         <v>1</v>
       </c>
       <c r="H299" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J299" s="4">
         <v>1</v>
       </c>
       <c r="K299" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L299" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M299" s="4">
         <v>1</v>
       </c>
       <c r="N299" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O299" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P299" s="4">
         <v>1</v>
       </c>
       <c r="Q299" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R299" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S299" s="4">
         <v>1</v>
@@ -39738,25 +40817,25 @@
         <v>2</v>
       </c>
       <c r="J300" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K300" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L300" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M300" s="1">
         <v>2</v>
       </c>
       <c r="N300" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O300" s="4">
         <v>1</v>
       </c>
       <c r="P300" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q300" s="1">
         <v>2</v>
@@ -39815,25 +40894,25 @@
         <v>1</v>
       </c>
       <c r="J301" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K301" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L301" s="4">
         <v>1</v>
       </c>
       <c r="M301" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N301" s="4">
         <v>1</v>
       </c>
       <c r="O301" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P301" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q301" s="4">
         <v>1</v>
@@ -39895,19 +40974,19 @@
         <v>1</v>
       </c>
       <c r="K302" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L302" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M302" s="4">
         <v>3</v>
       </c>
       <c r="N302" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O302" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P302" s="4">
         <v>1</v>
@@ -39975,13 +41054,13 @@
         <v>1</v>
       </c>
       <c r="L303" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M303" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N303" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O303" s="4">
         <v>1</v>
@@ -40168,6 +41247,11 @@
         <v>0</v>
       </c>
       <c r="Y305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:25" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O306" s="1">
         <v>0</v>
       </c>
     </row>
